--- a/biology/Zoologie/Bécassine_(oiseau)/Bécassine_(oiseau).xlsx
+++ b/biology/Zoologie/Bécassine_(oiseau)/Bécassine_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_(oiseau)</t>
+          <t>Bécassine_(oiseau)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bécassine est le nom que la nomenclature aviaire en langue française (mise à jour) donne à 20 espèces d'oiseaux qui constituent 3 des genres de la famille des Scolopacidae. Apparentée à la bécasse, elle s'en distingue par une plus petite taille et aussi quelques différences morphologiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_(oiseau)</t>
+          <t>Bécassine_(oiseau)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des oiseaux appelés « bécassine » en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bécassine à queue pointue - Gallinago stenura - Pin-tailed Snipe
 Bécassine africaine - Gallinago nigripennis - African Snipe
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_(oiseau)</t>
+          <t>Bécassine_(oiseau)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal donna le nom au personnage de bande dessinée créé en 1905 Bécassine.
 </t>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9cassine_(oiseau)</t>
+          <t>Bécassine_(oiseau)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Liste des espèces de France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bécassine des marais (Gallinago gallinago),
 Bécassine double (Gallinago media), parfois nommée Bécassine royale ou Grande bécassine,
